--- a/TESTv2.xlsx
+++ b/TESTv2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects\_git\pryfung\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="22995" windowHeight="10035" tabRatio="917" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="1980" yWindow="120" windowWidth="22995" windowHeight="10035" tabRatio="917" firstSheet="9" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="ODM CZAS W CZAS TERAZNIEJSZYM" sheetId="1" r:id="rId1"/>
@@ -22,13 +27,14 @@
     <sheet name="TRYB PRZYPUSZCZAJĄCY" sheetId="13" r:id="rId13"/>
     <sheet name="2 STATYS DO POROW" sheetId="14" r:id="rId14"/>
     <sheet name="SŁOW Z IT" sheetId="15" r:id="rId15"/>
+    <sheet name="FORMY CZASOWNIKÓW" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="1145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="1406">
   <si>
     <t>20 PKT</t>
   </si>
@@ -5077,12 +5083,795 @@
   <si>
     <t>Kobiety, których zdjęcia widziałem.</t>
   </si>
+  <si>
+    <t>das Hauptbuch</t>
+  </si>
+  <si>
+    <t>księga główna</t>
+  </si>
+  <si>
+    <t>gebogen s-h</t>
+  </si>
+  <si>
+    <t>geblieben S</t>
+  </si>
+  <si>
+    <t>gefahren s-h</t>
+  </si>
+  <si>
+    <t>gefallen s</t>
+  </si>
+  <si>
+    <t>geflogen s</t>
+  </si>
+  <si>
+    <t>geflohen s</t>
+  </si>
+  <si>
+    <t>geflossen s</t>
+  </si>
+  <si>
+    <t>gegangen s</t>
+  </si>
+  <si>
+    <t>gelungen s</t>
+  </si>
+  <si>
+    <t>geschehen s</t>
+  </si>
+  <si>
+    <t>gekommen s</t>
+  </si>
+  <si>
+    <t>gelaufen s</t>
+  </si>
+  <si>
+    <t>geritten s-h</t>
+  </si>
+  <si>
+    <t>geschmolzen s-h</t>
+  </si>
+  <si>
+    <t>geschwommen s</t>
+  </si>
+  <si>
+    <t>gewesen s</t>
+  </si>
+  <si>
+    <t>gesunken s</t>
+  </si>
+  <si>
+    <t>gesprungen s</t>
+  </si>
+  <si>
+    <t>gestiegen s</t>
+  </si>
+  <si>
+    <t>gestorben s</t>
+  </si>
+  <si>
+    <t>verdorben s-h</t>
+  </si>
+  <si>
+    <t>verschwunden s</t>
+  </si>
+  <si>
+    <t>gewachsen s</t>
+  </si>
+  <si>
+    <t>geworden s</t>
+  </si>
+  <si>
+    <t>rozkazywać</t>
+  </si>
+  <si>
+    <t>gryźć</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>biss</t>
+  </si>
+  <si>
+    <t>dowodzić</t>
+  </si>
+  <si>
+    <t>ubiegaćsięum</t>
+  </si>
+  <si>
+    <t>sichbewerben</t>
+  </si>
+  <si>
+    <t>wyginać</t>
+  </si>
+  <si>
+    <t>bog</t>
+  </si>
+  <si>
+    <t>oferowaćdawać</t>
+  </si>
+  <si>
+    <t>wiązać</t>
+  </si>
+  <si>
+    <t>binden</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>zostawać</t>
+  </si>
+  <si>
+    <t>smażyć</t>
+  </si>
+  <si>
+    <t>otrzymywaćwitać</t>
+  </si>
+  <si>
+    <t>polecać</t>
+  </si>
+  <si>
+    <t>decydować</t>
+  </si>
+  <si>
+    <t>entschied</t>
+  </si>
+  <si>
+    <t>przestraszyć</t>
+  </si>
+  <si>
+    <t>aß</t>
+  </si>
+  <si>
+    <t>spadać</t>
+  </si>
+  <si>
+    <t>łapaćchwytać</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>lecieć</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>floß</t>
+  </si>
+  <si>
+    <t>urodzić</t>
+  </si>
+  <si>
+    <t>gebären</t>
+  </si>
+  <si>
+    <t>gebar</t>
+  </si>
+  <si>
+    <t>udaćsię</t>
+  </si>
+  <si>
+    <t>rozkoszowaćsię</t>
+  </si>
+  <si>
+    <t>genießen</t>
+  </si>
+  <si>
+    <t>wydarzyćsię</t>
+  </si>
+  <si>
+    <t>gießen</t>
+  </si>
+  <si>
+    <t>byćpodobnym</t>
+  </si>
+  <si>
+    <t>glich</t>
+  </si>
+  <si>
+    <t>chwytać</t>
+  </si>
+  <si>
+    <t>wieszać</t>
+  </si>
+  <si>
+    <t>hängen</t>
+  </si>
+  <si>
+    <t>nazywacsię</t>
+  </si>
+  <si>
+    <t>heißen</t>
+  </si>
+  <si>
+    <t>hieß</t>
+  </si>
+  <si>
+    <t>geheißen!!!</t>
+  </si>
+  <si>
+    <t>rozmbrzmiewać</t>
+  </si>
+  <si>
+    <t>kam</t>
+  </si>
+  <si>
+    <t>ładować</t>
+  </si>
+  <si>
+    <t>zostawiać</t>
+  </si>
+  <si>
+    <t>ließ</t>
+  </si>
+  <si>
+    <t>biegać</t>
+  </si>
+  <si>
+    <t>cierpiećunter</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>mierzyć</t>
+  </si>
+  <si>
+    <t>maß</t>
+  </si>
+  <si>
+    <t>drzećrwać</t>
+  </si>
+  <si>
+    <t>reißen</t>
+  </si>
+  <si>
+    <t>jeździćkonno</t>
+  </si>
+  <si>
+    <t>pachnieć</t>
+  </si>
+  <si>
+    <t>wołaćnachktoś</t>
+  </si>
+  <si>
+    <t>tworzyćdawaćdadę</t>
+  </si>
+  <si>
+    <t>strzelaćauf</t>
+  </si>
+  <si>
+    <t>schießen</t>
+  </si>
+  <si>
+    <t>uderzać</t>
+  </si>
+  <si>
+    <t>zamykać</t>
+  </si>
+  <si>
+    <t>schließen</t>
+  </si>
+  <si>
+    <t>schloss</t>
+  </si>
+  <si>
+    <t>geschlossen</t>
+  </si>
+  <si>
+    <t>rzucaćradzićsobie</t>
+  </si>
+  <si>
+    <t>schmeißen</t>
+  </si>
+  <si>
+    <t>schmiss</t>
+  </si>
+  <si>
+    <t>geschmissen</t>
+  </si>
+  <si>
+    <t>roztapiać(się)</t>
+  </si>
+  <si>
+    <t>schmelzen</t>
+  </si>
+  <si>
+    <t>schmolz</t>
+  </si>
+  <si>
+    <t>kroić</t>
+  </si>
+  <si>
+    <t>schneiden</t>
+  </si>
+  <si>
+    <t>schnitt</t>
+  </si>
+  <si>
+    <t>geschnitten</t>
+  </si>
+  <si>
+    <t>pisać</t>
+  </si>
+  <si>
+    <t>schreiben</t>
+  </si>
+  <si>
+    <t>schrieb</t>
+  </si>
+  <si>
+    <t>geschrieben</t>
+  </si>
+  <si>
+    <t>krzyczećwołaćnach</t>
+  </si>
+  <si>
+    <t>schreien</t>
+  </si>
+  <si>
+    <t>schrie</t>
+  </si>
+  <si>
+    <t>geschrien</t>
+  </si>
+  <si>
+    <t>milczeć</t>
+  </si>
+  <si>
+    <t>schweigen</t>
+  </si>
+  <si>
+    <t>schwieg</t>
+  </si>
+  <si>
+    <t>geschwiegen</t>
+  </si>
+  <si>
+    <t>pływać</t>
+  </si>
+  <si>
+    <t>schwimmen</t>
+  </si>
+  <si>
+    <t>schwamm</t>
+  </si>
+  <si>
+    <t>przysięgaćauf</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>schwor</t>
+  </si>
+  <si>
+    <t>geschworen</t>
+  </si>
+  <si>
+    <t>widzieć</t>
+  </si>
+  <si>
+    <t>sah</t>
+  </si>
+  <si>
+    <t>gesehen</t>
+  </si>
+  <si>
+    <t>być</t>
+  </si>
+  <si>
+    <t>śpiewać</t>
+  </si>
+  <si>
+    <t>singen</t>
+  </si>
+  <si>
+    <t>sang</t>
+  </si>
+  <si>
+    <t>gesungen</t>
+  </si>
+  <si>
+    <t>opadaćupadaćtonąć</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>sank</t>
+  </si>
+  <si>
+    <t>siedzieć</t>
+  </si>
+  <si>
+    <t>sitzen</t>
+  </si>
+  <si>
+    <t>saß</t>
+  </si>
+  <si>
+    <t>gesessen</t>
+  </si>
+  <si>
+    <t>rozmawiaćuber</t>
+  </si>
+  <si>
+    <t>sprechen</t>
+  </si>
+  <si>
+    <t>sprach</t>
+  </si>
+  <si>
+    <t>gesprochen</t>
+  </si>
+  <si>
+    <t>skakać</t>
+  </si>
+  <si>
+    <t>springen</t>
+  </si>
+  <si>
+    <t>sprang</t>
+  </si>
+  <si>
+    <t>stać</t>
+  </si>
+  <si>
+    <t>stehen</t>
+  </si>
+  <si>
+    <t>stand</t>
+  </si>
+  <si>
+    <t>gestanden</t>
+  </si>
+  <si>
+    <t>kraść</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>stahl</t>
+  </si>
+  <si>
+    <t>gestohlen</t>
+  </si>
+  <si>
+    <t>wspinaćsię</t>
+  </si>
+  <si>
+    <t>steigen</t>
+  </si>
+  <si>
+    <t>stieg</t>
+  </si>
+  <si>
+    <t>umierać</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>starb</t>
+  </si>
+  <si>
+    <t>pchać</t>
+  </si>
+  <si>
+    <t>stoßen</t>
+  </si>
+  <si>
+    <t>stieß</t>
+  </si>
+  <si>
+    <t>gestoßen</t>
+  </si>
+  <si>
+    <t>malować</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>strich</t>
+  </si>
+  <si>
+    <t>gestrichen</t>
+  </si>
+  <si>
+    <t>sprzeczaćsięumcoś</t>
+  </si>
+  <si>
+    <t>streiten</t>
+  </si>
+  <si>
+    <t>stritt</t>
+  </si>
+  <si>
+    <t>gestritten</t>
+  </si>
+  <si>
+    <t>nosić</t>
+  </si>
+  <si>
+    <t>tragen</t>
+  </si>
+  <si>
+    <t>trug</t>
+  </si>
+  <si>
+    <t>getragen</t>
+  </si>
+  <si>
+    <t>spotykać</t>
+  </si>
+  <si>
+    <t>treffen</t>
+  </si>
+  <si>
+    <t>traf</t>
+  </si>
+  <si>
+    <t>getroffen</t>
+  </si>
+  <si>
+    <t>gnaćuprawiaćsport</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>trieb</t>
+  </si>
+  <si>
+    <t>getrieben</t>
+  </si>
+  <si>
+    <t>kopać</t>
+  </si>
+  <si>
+    <t>treten</t>
+  </si>
+  <si>
+    <t>trat</t>
+  </si>
+  <si>
+    <t>getreten</t>
+  </si>
+  <si>
+    <t>pić</t>
+  </si>
+  <si>
+    <t>trinken</t>
+  </si>
+  <si>
+    <t>trank</t>
+  </si>
+  <si>
+    <t>getrunken</t>
+  </si>
+  <si>
+    <t>czynićrobić</t>
+  </si>
+  <si>
+    <t>tun</t>
+  </si>
+  <si>
+    <t>tat</t>
+  </si>
+  <si>
+    <t>getan</t>
+  </si>
+  <si>
+    <t>przerwyać</t>
+  </si>
+  <si>
+    <t>unterbrechen</t>
+  </si>
+  <si>
+    <t>unterbrach</t>
+  </si>
+  <si>
+    <t>unterbrochen</t>
+  </si>
+  <si>
+    <t>podpisać</t>
+  </si>
+  <si>
+    <t>unterschreiben</t>
+  </si>
+  <si>
+    <t>unterschrieb</t>
+  </si>
+  <si>
+    <t>unterschrieben</t>
+  </si>
+  <si>
+    <t>wypaczyćzepsuć</t>
+  </si>
+  <si>
+    <t>verderben</t>
+  </si>
+  <si>
+    <t>verdarb</t>
+  </si>
+  <si>
+    <t>zapomnieć</t>
+  </si>
+  <si>
+    <t>vergessen</t>
+  </si>
+  <si>
+    <t>vergaß</t>
+  </si>
+  <si>
+    <t>porównać</t>
+  </si>
+  <si>
+    <t>vergleichen</t>
+  </si>
+  <si>
+    <t>verglich</t>
+  </si>
+  <si>
+    <t>verglichen</t>
+  </si>
+  <si>
+    <t>gubićprzegrać</t>
+  </si>
+  <si>
+    <t>verlieren</t>
+  </si>
+  <si>
+    <t>verlor</t>
+  </si>
+  <si>
+    <t>verloren</t>
+  </si>
+  <si>
+    <t>unikać</t>
+  </si>
+  <si>
+    <t>vermeiden</t>
+  </si>
+  <si>
+    <t>vermied</t>
+  </si>
+  <si>
+    <t>vermieden</t>
+  </si>
+  <si>
+    <t>znikać</t>
+  </si>
+  <si>
+    <t>verschwinden</t>
+  </si>
+  <si>
+    <t>verschwand</t>
+  </si>
+  <si>
+    <t>wybaczyć</t>
+  </si>
+  <si>
+    <t>verzeihen</t>
+  </si>
+  <si>
+    <t>verzieh</t>
+  </si>
+  <si>
+    <t>verziehen</t>
+  </si>
+  <si>
+    <t>rosnąć</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>wuchs</t>
+  </si>
+  <si>
+    <t>myć</t>
+  </si>
+  <si>
+    <t>waschen</t>
+  </si>
+  <si>
+    <t>wusch</t>
+  </si>
+  <si>
+    <t>gewaschen</t>
+  </si>
+  <si>
+    <t>reklamowaćzdobywać</t>
+  </si>
+  <si>
+    <t>werben</t>
+  </si>
+  <si>
+    <t>warb</t>
+  </si>
+  <si>
+    <t>geworben</t>
+  </si>
+  <si>
+    <t>stawaćsię</t>
+  </si>
+  <si>
+    <t>wurde</t>
+  </si>
+  <si>
+    <t>rzucać</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>warf</t>
+  </si>
+  <si>
+    <t>geworfen</t>
+  </si>
+  <si>
+    <t>kołysaćważyć</t>
+  </si>
+  <si>
+    <t>wiegen</t>
+  </si>
+  <si>
+    <t>wog</t>
+  </si>
+  <si>
+    <t>gewogen</t>
+  </si>
+  <si>
+    <t>ciągnąć</t>
+  </si>
+  <si>
+    <t>ziehen</t>
+  </si>
+  <si>
+    <t>zog</t>
+  </si>
+  <si>
+    <t>gezogen</t>
+  </si>
+  <si>
+    <t>zmuszaćzumczegoś</t>
+  </si>
+  <si>
+    <t>zwingen</t>
+  </si>
+  <si>
+    <t>zwang</t>
+  </si>
+  <si>
+    <t>gezwungen</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5278,8 +6067,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5304,8 +6101,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -5375,11 +6178,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5396,9 +6214,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5419,14 +6234,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5434,22 +6253,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5498,7 +6349,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5533,7 +6384,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5757,18 +6608,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -6624,26 +7475,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="38" t="s">
         <v>966</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="35" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="35" t="s">
         <v>1013</v>
       </c>
     </row>
@@ -6654,10 +7505,10 @@
       <c r="B5" s="2" t="s">
         <v>1006</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>967</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>968</v>
       </c>
     </row>
@@ -6668,10 +7519,10 @@
       <c r="B7" s="13" t="s">
         <v>969</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>970</v>
       </c>
       <c r="E7" s="13"/>
@@ -6686,10 +7537,10 @@
       <c r="B8" s="13" t="s">
         <v>969</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>984</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>970</v>
       </c>
       <c r="E8" s="13"/>
@@ -6704,10 +7555,10 @@
       <c r="B9" s="13" t="s">
         <v>969</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>973</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>974</v>
       </c>
       <c r="E9" s="13" t="s">
@@ -6724,13 +7575,13 @@
       <c r="B10" s="13" t="s">
         <v>969</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>977</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>974</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>990</v>
       </c>
       <c r="G10" t="s">
@@ -6738,16 +7589,16 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>850</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>985</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>872</v>
       </c>
     </row>
@@ -6755,46 +7606,46 @@
       <c r="A13" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>986</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>987</v>
       </c>
-      <c r="E13" s="19"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>986</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>984</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>987</v>
       </c>
-      <c r="E14" s="19"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>988</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>989</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="16" t="s">
         <v>975</v>
       </c>
     </row>
@@ -6802,16 +7653,16 @@
       <c r="A16" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>986</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>977</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>989</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6834,16 +7685,16 @@
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>1003</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="20" t="s">
         <v>1004</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="21" t="s">
         <v>1005</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="20" t="s">
         <v>967</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -6868,23 +7719,23 @@
       <c r="A26" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="29" t="s">
         <v>994</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="24" t="s">
         <v>995</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="23" t="s">
         <v>996</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="25" t="s">
         <v>998</v>
       </c>
-      <c r="F26" s="31" t="s">
+      <c r="F26" s="30" t="s">
         <v>990</v>
       </c>
-      <c r="G26" s="32"/>
-      <c r="H26" s="33" t="s">
+      <c r="G26" s="31"/>
+      <c r="H26" s="41" t="s">
         <v>1002</v>
       </c>
     </row>
@@ -6892,47 +7743,47 @@
       <c r="A27" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="32" t="s">
         <v>994</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="27" t="s">
         <v>997</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="26" t="s">
         <v>996</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="28" t="s">
         <v>998</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="33" t="s">
         <v>990</v>
       </c>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="42"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="29" t="s">
         <v>994</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="23" t="s">
         <v>999</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="23" t="s">
         <v>996</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="23" t="s">
         <v>998</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="23" t="s">
         <v>1007</v>
       </c>
-      <c r="H28" s="38" t="s">
+      <c r="H28" s="39" t="s">
         <v>1011</v>
       </c>
     </row>
@@ -6940,25 +7791,25 @@
       <c r="A29" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="32" t="s">
         <v>994</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="26" t="s">
         <v>1000</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="26" t="s">
         <v>996</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="26" t="s">
         <v>998</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="F29" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="G29" s="26" t="s">
         <v>1001</v>
       </c>
-      <c r="H29" s="39"/>
+      <c r="H29" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6987,18 +7838,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="38" t="s">
         <v>1014</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -7008,14 +7859,14 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>1022</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>1019</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>1020</v>
       </c>
     </row>
@@ -7141,13 +7992,13 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>1022</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>1019</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>1020</v>
       </c>
     </row>
@@ -7278,8 +8129,8 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7288,30 +8139,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="38" t="s">
         <v>1014</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="37" t="s">
         <v>1101</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="37" t="s">
         <v>967</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="37" t="s">
         <v>1100</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -7322,13 +8173,13 @@
       <c r="C4" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="37" t="s">
         <v>1102</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="37" t="s">
         <v>967</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="37" t="s">
         <v>1100</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -7419,18 +8270,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="38" t="s">
         <v>1082</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -7440,14 +8291,14 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
+    <row r="5" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="36" t="s">
         <v>1086</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="36" t="s">
         <v>1090</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="36" t="s">
         <v>1091</v>
       </c>
     </row>
@@ -7580,10 +8431,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7931,9 +8782,1621 @@
         <v>841</v>
       </c>
     </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1146</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="43" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="43" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="43" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="43" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="43" t="s">
+        <v>269</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="43" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>273</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="43" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>343</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="43" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>346</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>354</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="43" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>357</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="43" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="43" t="s">
+        <v>368</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>365</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="43" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="43" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D42" s="43" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="D43" s="43" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="43" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="D44" s="43" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>332</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D45" s="43" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="43" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="D46" s="43" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="43" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>393</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="43" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>397</v>
+      </c>
+      <c r="D48" s="43" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="43" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>400</v>
+      </c>
+      <c r="C49" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="D49" s="43" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="B50" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="C50" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="D50" s="43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="43" t="s">
+        <v>411</v>
+      </c>
+      <c r="B51" s="43" t="s">
+        <v>408</v>
+      </c>
+      <c r="C51" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="D51" s="43" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="43" t="s">
+        <v>415</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>412</v>
+      </c>
+      <c r="C52" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="D52" s="43" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="43" t="s">
+        <v>419</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>417</v>
+      </c>
+      <c r="D53" s="43" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="43" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>420</v>
+      </c>
+      <c r="C54" s="43" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D54" s="43" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>424</v>
+      </c>
+      <c r="C55" s="43" t="s">
+        <v>425</v>
+      </c>
+      <c r="D55" s="43" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="43" t="s">
+        <v>431</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>428</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>429</v>
+      </c>
+      <c r="D56" s="43" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="43" t="s">
+        <v>435</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>432</v>
+      </c>
+      <c r="C57" s="43" t="s">
+        <v>433</v>
+      </c>
+      <c r="D57" s="43" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="43" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B58" s="43" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>437</v>
+      </c>
+      <c r="D58" s="43" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="43" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B59" s="43" t="s">
+        <v>440</v>
+      </c>
+      <c r="C59" s="43" t="s">
+        <v>441</v>
+      </c>
+      <c r="D59" s="43" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="43" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B60" s="43" t="s">
+        <v>444</v>
+      </c>
+      <c r="C60" s="43" t="s">
+        <v>445</v>
+      </c>
+      <c r="D60" s="43" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="43" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B61" s="43" t="s">
+        <v>448</v>
+      </c>
+      <c r="C61" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="D61" s="43" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="43" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B62" s="43" t="s">
+        <v>452</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>453</v>
+      </c>
+      <c r="D62" s="43" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="43" t="s">
+        <v>459</v>
+      </c>
+      <c r="B63" s="43" t="s">
+        <v>456</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>457</v>
+      </c>
+      <c r="D63" s="43" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="43" t="s">
+        <v>463</v>
+      </c>
+      <c r="B64" s="43" t="s">
+        <v>460</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>461</v>
+      </c>
+      <c r="D64" s="43" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="43" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B65" s="43" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>621</v>
+      </c>
+      <c r="D65" s="43" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="B66" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>625</v>
+      </c>
+      <c r="D66" s="43" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="43" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B67" s="43" t="s">
+        <v>628</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="D67" s="43" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="43" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B68" s="43" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D68" s="43" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="43" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B69" s="43" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D69" s="43" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="43" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B70" s="43" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D70" s="43" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="43" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B71" s="43" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C71" s="43" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D71" s="43" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="43" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B72" s="43" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C72" s="43" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D72" s="43" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="43" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B73" s="43" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C73" s="43" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D73" s="43" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="43" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B74" s="43" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C74" s="43" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D74" s="43" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="43" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B75" s="43" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C75" s="43" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D75" s="43" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="43" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B76" s="43" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C76" s="43" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D76" s="43" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="43" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B77" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" s="43" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D77" s="43" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="43" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B78" s="43" t="s">
+        <v>693</v>
+      </c>
+      <c r="C78" s="43" t="s">
+        <v>977</v>
+      </c>
+      <c r="D78" s="43" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="43" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B79" s="43" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C79" s="43" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D79" s="43" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="43" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B80" s="43" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C80" s="43" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D80" s="43" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="43" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B81" s="43" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C81" s="43" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D81" s="43" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="43" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B82" s="43" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C82" s="43" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D82" s="43" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="43" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B83" s="43" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C83" s="43" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D83" s="43" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="43" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B84" s="43" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C84" s="43" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D84" s="43" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="43" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B85" s="43" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C85" s="43" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D85" s="43" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="43" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B86" s="43" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C86" s="43" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D86" s="43" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="43" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B87" s="43" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C87" s="43" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D87" s="43" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="43" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B88" s="43" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C88" s="43" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D88" s="43" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="43" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B89" s="43" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C89" s="43" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D89" s="43" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="43" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B90" s="43" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C90" s="43" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D90" s="43" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="43" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B91" s="43" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C91" s="43" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D91" s="43" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="43" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B92" s="43" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C92" s="43" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D92" s="43" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="43" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B93" s="43" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C93" s="43" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D93" s="43" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="43" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B94" s="43" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C94" s="43" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D94" s="43" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="43" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B95" s="43" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C95" s="43" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D95" s="43" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="43" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B96" s="43" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C96" s="43" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D96" s="43" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="43" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B97" s="43" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C97" s="43" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D97" s="43" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="43" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B98" s="43" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C98" s="43" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D98" s="43" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="43" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B99" s="43" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C99" s="43" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D99" s="43" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="43" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B100" s="43" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C100" s="43" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D100" s="43" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="43" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B101" s="43" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C101" s="43" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D101" s="43" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="43" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B102" s="43" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C102" s="43" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D102" s="43" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="43" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B103" s="43" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C103" s="43" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D103" s="43" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="43" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B104" s="43" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C104" s="43" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D104" s="43" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="43" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B105" s="43" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C105" s="43" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D105" s="43" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="43" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B106" s="43" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C106" s="43" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D106" s="43" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="43" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B107" s="43" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C107" s="43" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D107" s="43" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="43" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B108" s="43" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C108" s="43" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D108" s="43" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="43" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B109" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="43" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D109" s="43" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="43" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B110" s="43" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C110" s="43" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D110" s="43" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="43" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B111" s="43" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C111" s="43" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D111" s="43" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="43" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B112" s="43" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C112" s="43" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D112" s="43" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="43" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B113" s="43" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C113" s="43" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D113" s="43" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7954,18 +10417,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D3" s="9" t="s">
@@ -9403,18 +11866,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="38" t="s">
         <v>574</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -9735,18 +12198,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="38" t="s">
         <v>464</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -10307,18 +12770,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="38" t="s">
         <v>600</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -10528,18 +12991,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="38" t="s">
         <v>632</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -11167,18 +13630,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="38" t="s">
         <v>894</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -11192,7 +13655,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>896</v>
       </c>
       <c r="B7" t="s">
@@ -11203,7 +13666,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>898</v>
       </c>
       <c r="B8" t="s">
@@ -11211,7 +13674,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>900</v>
       </c>
       <c r="B9" t="s">
@@ -11222,7 +13685,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>902</v>
       </c>
       <c r="B10" t="s">
@@ -11233,7 +13696,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>904</v>
       </c>
       <c r="B11" t="s">
@@ -11241,7 +13704,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>906</v>
       </c>
       <c r="B12" t="s">
@@ -11249,7 +13712,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>908</v>
       </c>
       <c r="B13" t="s">
@@ -11265,7 +13728,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>908</v>
       </c>
       <c r="B17" t="s">
@@ -11273,7 +13736,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>906</v>
       </c>
       <c r="B18" t="s">
@@ -11281,7 +13744,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>964</v>
       </c>
       <c r="B19" t="s">
@@ -11289,7 +13752,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>913</v>
       </c>
       <c r="B20" t="s">
@@ -11297,7 +13760,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>915</v>
       </c>
       <c r="B21" t="s">
@@ -11305,7 +13768,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>917</v>
       </c>
       <c r="B22" t="s">
@@ -11313,7 +13776,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>919</v>
       </c>
       <c r="B23" t="s">
@@ -11529,18 +13992,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="38" t="s">
         <v>966</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
@@ -11646,7 +14109,7 @@
       <c r="D14" t="s">
         <v>1130</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="35" t="s">
         <v>1129</v>
       </c>
       <c r="F14" t="s">
@@ -11657,7 +14120,7 @@
       <c r="D15" t="s">
         <v>1132</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="35" t="s">
         <v>1127</v>
       </c>
       <c r="F15" t="s">
@@ -11668,7 +14131,7 @@
       <c r="D16" t="s">
         <v>1132</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="35" t="s">
         <v>1127</v>
       </c>
       <c r="F16" t="s">
@@ -11679,7 +14142,7 @@
       <c r="D17" t="s">
         <v>1135</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="35" t="s">
         <v>584</v>
       </c>
       <c r="F17" t="s">
@@ -11693,7 +14156,7 @@
       <c r="D18" t="s">
         <v>1137</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="35" t="s">
         <v>591</v>
       </c>
       <c r="F18" t="s">
@@ -11707,7 +14170,7 @@
       <c r="D19" t="s">
         <v>1141</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="35" t="s">
         <v>1142</v>
       </c>
       <c r="F19" t="s">
